--- a/paso2_multiclass_2500_LR_KNN_CART_RFC.xlsx
+++ b/paso2_multiclass_2500_LR_KNN_CART_RFC.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.7887683471601787</v>
+        <v>0.7956989247311828</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6707083599234206</v>
+        <v>0.6755218216318786</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.805360561582642</v>
+        <v>0.8134092346616065</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8232291001914487</v>
+        <v>0.8260594560404807</v>
       </c>
     </row>
   </sheetData>
